--- a/data_year/zb/文化/主要文化机构数.xlsx
+++ b/data_year/zb/文化/主要文化机构数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,652 +478,402 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>42024</v>
+        <v>40118</v>
       </c>
       <c r="C2" t="n">
-        <v>2675</v>
+        <v>2884</v>
       </c>
       <c r="D2" t="n">
-        <v>1392</v>
+        <v>2435</v>
       </c>
       <c r="E2" t="n">
-        <v>2907</v>
+        <v>2890</v>
       </c>
       <c r="F2" t="n">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="G2" t="n">
-        <v>45321</v>
+        <v>43382</v>
       </c>
       <c r="H2" t="n">
-        <v>2619</v>
+        <v>6864</v>
       </c>
       <c r="I2" t="n">
-        <v>1900</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40138</v>
+        <v>40390</v>
       </c>
       <c r="C3" t="n">
-        <v>2696</v>
+        <v>2952</v>
       </c>
       <c r="D3" t="n">
-        <v>1461</v>
+        <v>2650</v>
       </c>
       <c r="E3" t="n">
-        <v>2842</v>
+        <v>2906</v>
       </c>
       <c r="F3" t="n">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="G3" t="n">
-        <v>43379</v>
+        <v>43675</v>
       </c>
       <c r="H3" t="n">
-        <v>2605</v>
+        <v>7055</v>
       </c>
       <c r="I3" t="n">
-        <v>1854</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39273</v>
+        <v>40575</v>
       </c>
       <c r="C4" t="n">
-        <v>2697</v>
+        <v>3076</v>
       </c>
       <c r="D4" t="n">
-        <v>1511</v>
+        <v>3069</v>
       </c>
       <c r="E4" t="n">
-        <v>2854</v>
+        <v>2919</v>
       </c>
       <c r="F4" t="n">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="G4" t="n">
-        <v>42516</v>
+        <v>43876</v>
       </c>
       <c r="H4" t="n">
-        <v>2587</v>
+        <v>7321</v>
       </c>
       <c r="I4" t="n">
-        <v>1829</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>38588</v>
+        <v>40945</v>
       </c>
       <c r="C5" t="n">
-        <v>2709</v>
+        <v>3112</v>
       </c>
       <c r="D5" t="n">
-        <v>1515</v>
+        <v>3473</v>
       </c>
       <c r="E5" t="n">
-        <v>2846</v>
+        <v>2930</v>
       </c>
       <c r="F5" t="n">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G5" t="n">
-        <v>41816</v>
+        <v>44260</v>
       </c>
       <c r="H5" t="n">
-        <v>2601</v>
+        <v>8180</v>
       </c>
       <c r="I5" t="n">
-        <v>1900</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38181</v>
+        <v>41110</v>
       </c>
       <c r="C6" t="n">
-        <v>2720</v>
+        <v>3117</v>
       </c>
       <c r="D6" t="n">
-        <v>1548</v>
+        <v>3658</v>
       </c>
       <c r="E6" t="n">
-        <v>2841</v>
+        <v>2928</v>
       </c>
       <c r="F6" t="n">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="G6" t="n">
-        <v>41402</v>
+        <v>44423</v>
       </c>
       <c r="H6" t="n">
-        <v>2759</v>
+        <v>8769</v>
       </c>
       <c r="I6" t="n">
-        <v>1928</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38362</v>
+        <v>40976</v>
       </c>
       <c r="C7" t="n">
-        <v>2762</v>
+        <v>3139</v>
       </c>
       <c r="D7" t="n">
-        <v>1581</v>
+        <v>3852</v>
       </c>
       <c r="E7" t="n">
-        <v>2851</v>
+        <v>2929</v>
       </c>
       <c r="F7" t="n">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="G7" t="n">
-        <v>41588</v>
+        <v>44291</v>
       </c>
       <c r="H7" t="n">
-        <v>2805</v>
+        <v>10787</v>
       </c>
       <c r="I7" t="n">
-        <v>1866</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36874</v>
+        <v>41175</v>
       </c>
       <c r="C8" t="n">
-        <v>2778</v>
+        <v>3153</v>
       </c>
       <c r="D8" t="n">
-        <v>1617</v>
+        <v>4109</v>
       </c>
       <c r="E8" t="n">
-        <v>2819</v>
+        <v>2933</v>
       </c>
       <c r="F8" t="n">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="G8" t="n">
-        <v>40088</v>
+        <v>44497</v>
       </c>
       <c r="H8" t="n">
-        <v>2866</v>
+        <v>12301</v>
       </c>
       <c r="I8" t="n">
-        <v>1839</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>37384</v>
+        <v>41193</v>
       </c>
       <c r="C9" t="n">
-        <v>2799</v>
+        <v>3166</v>
       </c>
       <c r="D9" t="n">
-        <v>1722</v>
+        <v>4721</v>
       </c>
       <c r="E9" t="n">
-        <v>2806</v>
+        <v>2938</v>
       </c>
       <c r="F9" t="n">
-        <v>411</v>
+        <v>390</v>
       </c>
       <c r="G9" t="n">
-        <v>40601</v>
+        <v>44521</v>
       </c>
       <c r="H9" t="n">
-        <v>4512</v>
+        <v>15742</v>
       </c>
       <c r="I9" t="n">
-        <v>1732</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>37938</v>
+        <v>41138</v>
       </c>
       <c r="C10" t="n">
-        <v>2820</v>
+        <v>3176</v>
       </c>
       <c r="D10" t="n">
-        <v>1893</v>
+        <v>4918</v>
       </c>
       <c r="E10" t="n">
-        <v>2829</v>
+        <v>2936</v>
       </c>
       <c r="F10" t="n">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G10" t="n">
-        <v>41156</v>
+        <v>44464</v>
       </c>
       <c r="H10" t="n">
-        <v>5114</v>
+        <v>17123</v>
       </c>
       <c r="I10" t="n">
-        <v>1662</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38736</v>
+        <v>40747</v>
       </c>
       <c r="C11" t="n">
-        <v>2850</v>
+        <v>3196</v>
       </c>
       <c r="D11" t="n">
-        <v>2252</v>
+        <v>5132</v>
       </c>
       <c r="E11" t="n">
-        <v>2862</v>
+        <v>2936</v>
       </c>
       <c r="F11" t="n">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="G11" t="n">
-        <v>41959</v>
+        <v>44073</v>
       </c>
       <c r="H11" t="n">
-        <v>6139</v>
+        <v>17795</v>
       </c>
       <c r="I11" t="n">
-        <v>1499</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>40118</v>
+        <v>40366</v>
       </c>
       <c r="C12" t="n">
-        <v>2884</v>
+        <v>3212</v>
       </c>
       <c r="D12" t="n">
-        <v>2435</v>
+        <v>5452</v>
       </c>
       <c r="E12" t="n">
-        <v>2890</v>
+        <v>2931</v>
       </c>
       <c r="F12" t="n">
-        <v>374</v>
+        <v>390</v>
       </c>
       <c r="G12" t="n">
-        <v>43382</v>
+        <v>43687</v>
       </c>
       <c r="H12" t="n">
-        <v>6864</v>
+        <v>17581</v>
       </c>
       <c r="I12" t="n">
-        <v>1461</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40390</v>
+        <v>40215</v>
       </c>
       <c r="C13" t="n">
-        <v>2952</v>
+        <v>3215</v>
       </c>
       <c r="D13" t="n">
-        <v>2650</v>
+        <v>5772</v>
       </c>
       <c r="E13" t="n">
-        <v>2906</v>
+        <v>2926</v>
       </c>
       <c r="F13" t="n">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="G13" t="n">
-        <v>43675</v>
+        <v>43531</v>
       </c>
       <c r="H13" t="n">
-        <v>7055</v>
+        <v>18370</v>
       </c>
       <c r="I13" t="n">
-        <v>1429</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40575</v>
+        <v>42120</v>
       </c>
       <c r="C14" t="n">
-        <v>3076</v>
+        <v>3303</v>
       </c>
       <c r="D14" t="n">
-        <v>3069</v>
+        <v>6091</v>
       </c>
       <c r="E14" t="n">
-        <v>2919</v>
+        <v>3099</v>
       </c>
       <c r="F14" t="n">
-        <v>382</v>
-      </c>
-      <c r="G14" t="n">
-        <v>43876</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>7321</v>
+        <v>19741</v>
       </c>
       <c r="I14" t="n">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>40945</v>
-      </c>
-      <c r="C15" t="n">
-        <v>3112</v>
-      </c>
-      <c r="D15" t="n">
-        <v>3473</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2930</v>
-      </c>
-      <c r="F15" t="n">
-        <v>385</v>
-      </c>
-      <c r="G15" t="n">
-        <v>44260</v>
-      </c>
-      <c r="H15" t="n">
-        <v>8180</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>41110</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3117</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3658</v>
-      </c>
-      <c r="E16" t="n">
-        <v>2928</v>
-      </c>
-      <c r="F16" t="n">
-        <v>385</v>
-      </c>
-      <c r="G16" t="n">
-        <v>44423</v>
-      </c>
-      <c r="H16" t="n">
-        <v>8769</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>40976</v>
-      </c>
-      <c r="C17" t="n">
-        <v>3139</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3852</v>
-      </c>
-      <c r="E17" t="n">
-        <v>2929</v>
-      </c>
-      <c r="F17" t="n">
-        <v>386</v>
-      </c>
-      <c r="G17" t="n">
-        <v>44291</v>
-      </c>
-      <c r="H17" t="n">
-        <v>10787</v>
-      </c>
-      <c r="I17" t="n">
-        <v>2143</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>41175</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3153</v>
-      </c>
-      <c r="D18" t="n">
-        <v>4109</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2933</v>
-      </c>
-      <c r="F18" t="n">
-        <v>389</v>
-      </c>
-      <c r="G18" t="n">
-        <v>44497</v>
-      </c>
-      <c r="H18" t="n">
-        <v>12301</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2285</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>41193</v>
-      </c>
-      <c r="C19" t="n">
-        <v>3166</v>
-      </c>
-      <c r="D19" t="n">
-        <v>4721</v>
-      </c>
-      <c r="E19" t="n">
-        <v>2938</v>
-      </c>
-      <c r="F19" t="n">
-        <v>390</v>
-      </c>
-      <c r="G19" t="n">
-        <v>44521</v>
-      </c>
-      <c r="H19" t="n">
-        <v>15742</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>41138</v>
-      </c>
-      <c r="C20" t="n">
-        <v>3176</v>
-      </c>
-      <c r="D20" t="n">
-        <v>4918</v>
-      </c>
-      <c r="E20" t="n">
-        <v>2936</v>
-      </c>
-      <c r="F20" t="n">
-        <v>390</v>
-      </c>
-      <c r="G20" t="n">
-        <v>44464</v>
-      </c>
-      <c r="H20" t="n">
-        <v>17123</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2478</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>40747</v>
-      </c>
-      <c r="C21" t="n">
-        <v>3196</v>
-      </c>
-      <c r="D21" t="n">
-        <v>5132</v>
-      </c>
-      <c r="E21" t="n">
-        <v>2936</v>
-      </c>
-      <c r="F21" t="n">
-        <v>390</v>
-      </c>
-      <c r="G21" t="n">
-        <v>44073</v>
-      </c>
-      <c r="H21" t="n">
-        <v>17795</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2716</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>40366</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3212</v>
-      </c>
-      <c r="D22" t="n">
-        <v>5452</v>
-      </c>
-      <c r="E22" t="n">
-        <v>2931</v>
-      </c>
-      <c r="F22" t="n">
-        <v>390</v>
-      </c>
-      <c r="G22" t="n">
-        <v>43687</v>
-      </c>
-      <c r="H22" t="n">
-        <v>17581</v>
-      </c>
-      <c r="I22" t="n">
-        <v>2770</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
